--- a/data/movies.xlsx
+++ b/data/movies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\PA1PEPF0011BBB8\EXCELCNV\0a26a6f0-6116-4648-b4b6-a6b789d47816\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69D90B2C-FD1A-4A1C-94ED-438609F59EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D971E158-F295-4446-85F5-B7078F615A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{987DA18F-84D2-4A6D-89A5-BD0A7B7085F6}"/>
   </bookViews>
